--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfc-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>Vipr2</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H2">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I2">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J2">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6099530374952959</v>
+        <v>0.6483006666666666</v>
       </c>
       <c r="N2">
-        <v>0.6099530374952959</v>
+        <v>1.944902</v>
       </c>
       <c r="O2">
-        <v>0.2486148153406921</v>
+        <v>0.2310664473662325</v>
       </c>
       <c r="P2">
-        <v>0.2486148153406921</v>
+        <v>0.3059082590740972</v>
       </c>
       <c r="Q2">
-        <v>3.686633291676092</v>
+        <v>4.093512063029</v>
       </c>
       <c r="R2">
-        <v>3.686633291676092</v>
+        <v>24.561072378174</v>
       </c>
       <c r="S2">
-        <v>0.1166102030239377</v>
+        <v>0.1079208483533431</v>
       </c>
       <c r="T2">
-        <v>0.1166102030239377</v>
+        <v>0.1180672751158315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +590,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H3">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I3">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J3">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.84345279296352</v>
+        <v>0.029863</v>
       </c>
       <c r="N3">
-        <v>1.84345279296352</v>
+        <v>0.089589</v>
       </c>
       <c r="O3">
-        <v>0.7513851846593079</v>
+        <v>0.01064373009698864</v>
       </c>
       <c r="P3">
-        <v>0.7513851846593079</v>
+        <v>0.01409120614930176</v>
       </c>
       <c r="Q3">
-        <v>11.14206179885611</v>
+        <v>0.1885615070655</v>
       </c>
       <c r="R3">
-        <v>11.14206179885611</v>
+        <v>1.131369042393</v>
       </c>
       <c r="S3">
-        <v>0.3524294351172552</v>
+        <v>0.004971212371177393</v>
       </c>
       <c r="T3">
-        <v>0.3524294351172552</v>
+        <v>0.005438592335424732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.89206141015945</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H4">
-        <v>2.89206141015945</v>
+        <v>12.628437</v>
       </c>
       <c r="I4">
-        <v>0.2244313461790874</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J4">
-        <v>0.2244313461790874</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6099530374952959</v>
+        <v>0.06825266666666667</v>
       </c>
       <c r="N4">
-        <v>0.6099530374952959</v>
+        <v>0.204758</v>
       </c>
       <c r="O4">
-        <v>0.2486148153406921</v>
+        <v>0.0243265232026164</v>
       </c>
       <c r="P4">
-        <v>0.2486148153406921</v>
+        <v>0.03220581978500407</v>
       </c>
       <c r="Q4">
-        <v>1.764021641749685</v>
+        <v>0.4309622505410001</v>
       </c>
       <c r="R4">
-        <v>1.764021641749685</v>
+        <v>2.585773503246</v>
       </c>
       <c r="S4">
-        <v>0.05579695768697675</v>
+        <v>0.01136183574654858</v>
       </c>
       <c r="T4">
-        <v>0.05579695768697675</v>
+        <v>0.01243004486507157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.89206141015945</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H5">
-        <v>2.89206141015945</v>
+        <v>12.628437</v>
       </c>
       <c r="I5">
-        <v>0.2244313461790874</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J5">
-        <v>0.2244313461790874</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.84345279296352</v>
+        <v>2.059273</v>
       </c>
       <c r="N5">
-        <v>1.84345279296352</v>
+        <v>4.118546</v>
       </c>
       <c r="O5">
-        <v>0.7513851846593079</v>
+        <v>0.7339632993341625</v>
       </c>
       <c r="P5">
-        <v>0.7513851846593079</v>
+        <v>0.6477947149915969</v>
       </c>
       <c r="Q5">
-        <v>5.331378683980454</v>
+        <v>13.0026996731505</v>
       </c>
       <c r="R5">
-        <v>5.331378683980454</v>
+        <v>52.01079869260201</v>
       </c>
       <c r="S5">
-        <v>0.1686343884921106</v>
+        <v>0.3428015742970091</v>
       </c>
       <c r="T5">
-        <v>0.1686343884921106</v>
+        <v>0.2500205684703947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.54637513729161</v>
+        <v>3.096071</v>
       </c>
       <c r="H6">
-        <v>2.54637513729161</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I6">
-        <v>0.197605209188074</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J6">
-        <v>0.197605209188074</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6099530374952959</v>
+        <v>0.6483006666666666</v>
       </c>
       <c r="N6">
-        <v>0.6099530374952959</v>
+        <v>1.944902</v>
       </c>
       <c r="O6">
-        <v>0.2486148153406921</v>
+        <v>0.2310664473662325</v>
       </c>
       <c r="P6">
-        <v>0.2486148153406921</v>
+        <v>0.3059082590740972</v>
       </c>
       <c r="Q6">
-        <v>1.553169249593519</v>
+        <v>2.007184893347333</v>
       </c>
       <c r="R6">
-        <v>1.553169249593519</v>
+        <v>18.064664040126</v>
       </c>
       <c r="S6">
-        <v>0.04912758259265186</v>
+        <v>0.05291717555896794</v>
       </c>
       <c r="T6">
-        <v>0.04912758259265186</v>
+        <v>0.08683845828311473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.54637513729161</v>
+        <v>3.096071</v>
       </c>
       <c r="H7">
-        <v>2.54637513729161</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I7">
-        <v>0.197605209188074</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J7">
-        <v>0.197605209188074</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.84345279296352</v>
+        <v>0.029863</v>
       </c>
       <c r="N7">
-        <v>1.84345279296352</v>
+        <v>0.089589</v>
       </c>
       <c r="O7">
-        <v>0.7513851846593079</v>
+        <v>0.01064373009698864</v>
       </c>
       <c r="P7">
-        <v>0.7513851846593079</v>
+        <v>0.01409120614930176</v>
       </c>
       <c r="Q7">
-        <v>4.694122358773085</v>
+        <v>0.092457968273</v>
       </c>
       <c r="R7">
-        <v>4.694122358773085</v>
+        <v>0.8321217144569999</v>
       </c>
       <c r="S7">
-        <v>0.1484776265954222</v>
+        <v>0.002437550499280878</v>
       </c>
       <c r="T7">
-        <v>0.1484776265954222</v>
+        <v>0.004000083623301311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.40361113884152</v>
+        <v>3.096071</v>
       </c>
       <c r="H8">
-        <v>1.40361113884152</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.1089238064916458</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J8">
-        <v>0.1089238064916458</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6099530374952959</v>
+        <v>0.06825266666666667</v>
       </c>
       <c r="N8">
-        <v>0.6099530374952959</v>
+        <v>0.204758</v>
       </c>
       <c r="O8">
-        <v>0.2486148153406921</v>
+        <v>0.0243265232026164</v>
       </c>
       <c r="P8">
-        <v>0.2486148153406921</v>
+        <v>0.03220581978500407</v>
       </c>
       <c r="Q8">
-        <v>0.8561368775986167</v>
+        <v>0.2113151019393333</v>
       </c>
       <c r="R8">
-        <v>0.8561368775986167</v>
+        <v>1.901835917454</v>
       </c>
       <c r="S8">
-        <v>0.02708007203712581</v>
+        <v>0.005571085346769739</v>
       </c>
       <c r="T8">
-        <v>0.02708007203712581</v>
+        <v>0.009142295622676109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.096071</v>
+      </c>
+      <c r="H9">
+        <v>9.288212999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.2290128063253425</v>
+      </c>
+      <c r="J9">
+        <v>0.2838709178560645</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.059273</v>
+      </c>
+      <c r="N9">
+        <v>4.118546</v>
+      </c>
+      <c r="O9">
+        <v>0.7339632993341625</v>
+      </c>
+      <c r="P9">
+        <v>0.6477947149915969</v>
+      </c>
+      <c r="Q9">
+        <v>6.375655416383</v>
+      </c>
+      <c r="R9">
+        <v>38.253932498298</v>
+      </c>
+      <c r="S9">
+        <v>0.1680869949203239</v>
+      </c>
+      <c r="T9">
+        <v>0.1838900803269723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.001624331253806005</v>
+      </c>
+      <c r="J10">
+        <v>0.002013426285275722</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6483006666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.944902</v>
+      </c>
+      <c r="O10">
+        <v>0.2310664473662325</v>
+      </c>
+      <c r="P10">
+        <v>0.3059082590740972</v>
+      </c>
+      <c r="Q10">
+        <v>0.01423646653977778</v>
+      </c>
+      <c r="R10">
+        <v>0.128128198858</v>
+      </c>
+      <c r="S10">
+        <v>0.0003753284521628917</v>
+      </c>
+      <c r="T10">
+        <v>0.0006159237297027228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.001624331253806005</v>
+      </c>
+      <c r="J11">
+        <v>0.002013426285275722</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.029863</v>
+      </c>
+      <c r="N11">
+        <v>0.089589</v>
+      </c>
+      <c r="O11">
+        <v>0.01064373009698864</v>
+      </c>
+      <c r="P11">
+        <v>0.01409120614930176</v>
+      </c>
+      <c r="Q11">
+        <v>0.0006557815256666667</v>
+      </c>
+      <c r="R11">
+        <v>0.005902033730999999</v>
+      </c>
+      <c r="S11">
+        <v>1.728894345361427E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.837160485224306E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.001624331253806005</v>
+      </c>
+      <c r="J12">
+        <v>0.002013426285275722</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06825266666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.204758</v>
+      </c>
+      <c r="O12">
+        <v>0.0243265232026164</v>
+      </c>
+      <c r="P12">
+        <v>0.03220581978500407</v>
+      </c>
+      <c r="Q12">
+        <v>0.001498805809111111</v>
+      </c>
+      <c r="R12">
+        <v>0.013489252282</v>
+      </c>
+      <c r="S12">
+        <v>3.951433193444677E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.484404409398011E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02195966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.06587899999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.001624331253806005</v>
+      </c>
+      <c r="J13">
+        <v>0.002013426285275722</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.059273</v>
+      </c>
+      <c r="N13">
+        <v>4.118546</v>
+      </c>
+      <c r="O13">
+        <v>0.7339632993341625</v>
+      </c>
+      <c r="P13">
+        <v>0.6477947149915969</v>
+      </c>
+      <c r="Q13">
+        <v>0.04522094865566667</v>
+      </c>
+      <c r="R13">
+        <v>0.271325691934</v>
+      </c>
+      <c r="S13">
+        <v>0.001192199526255052</v>
+      </c>
+      <c r="T13">
+        <v>0.001304286906626776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.40361113884152</v>
-      </c>
-      <c r="H9">
-        <v>1.40361113884152</v>
-      </c>
-      <c r="I9">
-        <v>0.1089238064916458</v>
-      </c>
-      <c r="J9">
-        <v>0.1089238064916458</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.84345279296352</v>
-      </c>
-      <c r="N9">
-        <v>1.84345279296352</v>
-      </c>
-      <c r="O9">
-        <v>0.7513851846593079</v>
-      </c>
-      <c r="P9">
-        <v>0.7513851846593079</v>
-      </c>
-      <c r="Q9">
-        <v>2.587490874132107</v>
-      </c>
-      <c r="R9">
-        <v>2.587490874132107</v>
-      </c>
-      <c r="S9">
-        <v>0.08184373445452001</v>
-      </c>
-      <c r="T9">
-        <v>0.08184373445452001</v>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.563407</v>
+      </c>
+      <c r="H14">
+        <v>7.690221</v>
+      </c>
+      <c r="I14">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J14">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6483006666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.944902</v>
+      </c>
+      <c r="O14">
+        <v>0.2310664473662325</v>
+      </c>
+      <c r="P14">
+        <v>0.3059082590740972</v>
+      </c>
+      <c r="Q14">
+        <v>1.661858467038</v>
+      </c>
+      <c r="R14">
+        <v>14.956726203342</v>
+      </c>
+      <c r="S14">
+        <v>0.04381303214560885</v>
+      </c>
+      <c r="T14">
+        <v>0.07189832269096681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.563407</v>
+      </c>
+      <c r="H15">
+        <v>7.690221</v>
+      </c>
+      <c r="I15">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J15">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.029863</v>
+      </c>
+      <c r="N15">
+        <v>0.089589</v>
+      </c>
+      <c r="O15">
+        <v>0.01064373009698864</v>
+      </c>
+      <c r="P15">
+        <v>0.01409120614930176</v>
+      </c>
+      <c r="Q15">
+        <v>0.07655102324100001</v>
+      </c>
+      <c r="R15">
+        <v>0.688959209169</v>
+      </c>
+      <c r="S15">
+        <v>0.002018181757689052</v>
+      </c>
+      <c r="T15">
+        <v>0.003311888635808399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.563407</v>
+      </c>
+      <c r="H16">
+        <v>7.690221</v>
+      </c>
+      <c r="I16">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J16">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06825266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.204758</v>
+      </c>
+      <c r="O16">
+        <v>0.0243265232026164</v>
+      </c>
+      <c r="P16">
+        <v>0.03220581978500407</v>
+      </c>
+      <c r="Q16">
+        <v>0.174959363502</v>
+      </c>
+      <c r="R16">
+        <v>1.574634271518</v>
+      </c>
+      <c r="S16">
+        <v>0.004612607131912342</v>
+      </c>
+      <c r="T16">
+        <v>0.00756940799976399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.563407</v>
+      </c>
+      <c r="H17">
+        <v>7.690221</v>
+      </c>
+      <c r="I17">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J17">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.059273</v>
+      </c>
+      <c r="N17">
+        <v>4.118546</v>
+      </c>
+      <c r="O17">
+        <v>0.7339632993341625</v>
+      </c>
+      <c r="P17">
+        <v>0.6477947149915969</v>
+      </c>
+      <c r="Q17">
+        <v>5.278754823111001</v>
+      </c>
+      <c r="R17">
+        <v>31.672528938666</v>
+      </c>
+      <c r="S17">
+        <v>0.1391684426447981</v>
+      </c>
+      <c r="T17">
+        <v>0.1522526838501841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.5235485</v>
+      </c>
+      <c r="H18">
+        <v>3.047097</v>
+      </c>
+      <c r="I18">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J18">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6483006666666666</v>
+      </c>
+      <c r="N18">
+        <v>1.944902</v>
+      </c>
+      <c r="O18">
+        <v>0.2310664473662325</v>
+      </c>
+      <c r="P18">
+        <v>0.3059082590740972</v>
+      </c>
+      <c r="Q18">
+        <v>0.987717508249</v>
+      </c>
+      <c r="R18">
+        <v>5.926305049493999</v>
+      </c>
+      <c r="S18">
+        <v>0.0260400628561497</v>
+      </c>
+      <c r="T18">
+        <v>0.02848827925448136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.5235485</v>
+      </c>
+      <c r="H19">
+        <v>3.047097</v>
+      </c>
+      <c r="I19">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J19">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.029863</v>
+      </c>
+      <c r="N19">
+        <v>0.089589</v>
+      </c>
+      <c r="O19">
+        <v>0.01064373009698864</v>
+      </c>
+      <c r="P19">
+        <v>0.01409120614930176</v>
+      </c>
+      <c r="Q19">
+        <v>0.0454977288555</v>
+      </c>
+      <c r="R19">
+        <v>0.272986373133</v>
+      </c>
+      <c r="S19">
+        <v>0.001199496525387704</v>
+      </c>
+      <c r="T19">
+        <v>0.001312269949915076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.5235485</v>
+      </c>
+      <c r="H20">
+        <v>3.047097</v>
+      </c>
+      <c r="I20">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J20">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.06825266666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.204758</v>
+      </c>
+      <c r="O20">
+        <v>0.0243265232026164</v>
+      </c>
+      <c r="P20">
+        <v>0.03220581978500407</v>
+      </c>
+      <c r="Q20">
+        <v>0.103986247921</v>
+      </c>
+      <c r="R20">
+        <v>0.623917487526</v>
+      </c>
+      <c r="S20">
+        <v>0.002741480645451288</v>
+      </c>
+      <c r="T20">
+        <v>0.00299922725339842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.5235485</v>
+      </c>
+      <c r="H21">
+        <v>3.047097</v>
+      </c>
+      <c r="I21">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J21">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.059273</v>
+      </c>
+      <c r="N21">
+        <v>4.118546</v>
+      </c>
+      <c r="O21">
+        <v>0.7339632993341625</v>
+      </c>
+      <c r="P21">
+        <v>0.6477947149915969</v>
+      </c>
+      <c r="Q21">
+        <v>3.1374022902405</v>
+      </c>
+      <c r="R21">
+        <v>12.549609160962</v>
+      </c>
+      <c r="S21">
+        <v>0.08271408794577616</v>
+      </c>
+      <c r="T21">
+        <v>0.06032709543741906</v>
       </c>
     </row>
   </sheetData>
